--- a/CI_Platform_DataBase.xlsx
+++ b/CI_Platform_DataBase.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="136">
-  <si>
-    <t>CI-PLATFORM</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="145">
+  <si>
+    <t>CI-PLATFORM-DATABASE</t>
   </si>
   <si>
     <t>TABLE-1:USER_DETAILS</t>
@@ -424,6 +424,33 @@
   </si>
   <si>
     <t>FK(story.story_id)</t>
+  </si>
+  <si>
+    <t>TABLE-18: Login_Details_of_User</t>
+  </si>
+  <si>
+    <t>FK(USER_DETAILS.Email_address)</t>
+  </si>
+  <si>
+    <t>FK(USER_DETAILS.Password)</t>
+  </si>
+  <si>
+    <t>TABLE-19: Forgot_password</t>
+  </si>
+  <si>
+    <t>TABLE-20: new_Password</t>
+  </si>
+  <si>
+    <t>New_password</t>
+  </si>
+  <si>
+    <t>Confirm_password</t>
+  </si>
+  <si>
+    <t>TABLE-21: New_Register</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
   </si>
 </sst>
 </file>
@@ -431,12 +458,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,23 +559,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,84 +581,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,9 +597,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -668,8 +650,31 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,6 +683,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,7 +730,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,19 +754,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,13 +820,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,67 +868,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,7 +886,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,19 +898,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,25 +910,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,43 +949,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -985,17 +978,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,6 +1004,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1028,158 +1048,161 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1202,9 +1225,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1255,6 +1275,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1268,6 +1291,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1275,6 +1301,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1621,10 +1654,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J157"/>
+  <dimension ref="A1:J185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="F190" sqref="F190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1640,445 +1673,445 @@
   </cols>
   <sheetData>
     <row r="1" ht="57" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="3" ht="37.8" customHeight="1" spans="1:8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="9">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="26"/>
       <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <v>15</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="E6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="11">
         <v>15</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <v>128</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="11">
         <v>240</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="E9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="26"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="11">
         <v>11</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="26"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:9">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="11">
         <v>2048</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="26"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10">
-        <v>20</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="11">
+        <v>20</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="E13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="9" t="s">
         <v>32</v>
       </c>
       <c r="I13" s="26"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="10">
-        <v>20</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="11">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="9" t="s">
         <v>34</v>
       </c>
       <c r="I14" s="26"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="26"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>255</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>1</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="26"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="26"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
       <c r="I19" s="26"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>16</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
       <c r="I20" s="26"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>16</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="26"/>
     </row>
     <row r="22" ht="19.2" customHeight="1" spans="1:9">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>255</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="D22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="13"/>
       <c r="I22" s="26"/>
     </row>
@@ -2137,171 +2170,171 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="8">
-        <v>20</v>
-      </c>
-      <c r="D27" s="8" t="s">
+      <c r="C27" s="9">
+        <v>20</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="E27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="11">
         <v>15</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="E28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="11">
         <v>15</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="D29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
       <c r="I29" s="29"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="11">
         <v>128</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="E30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:8">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="11">
         <v>2048</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="D31" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="11">
         <v>240</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="E32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
+      <c r="D34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="37" ht="48.6" customHeight="1" spans="1:8">
       <c r="A37" s="18" t="s">
@@ -2936,7 +2969,7 @@
       <c r="B72" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C72" s="33">
+      <c r="C72" s="34">
         <v>255</v>
       </c>
       <c r="D72" s="33" t="s">
@@ -2970,16 +3003,16 @@
       <c r="H73" s="33"/>
     </row>
     <row r="76" ht="48" customHeight="1" spans="1:8">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="33.6" customHeight="1" spans="1:8">
       <c r="A77" s="30" t="s">
@@ -3069,10 +3102,10 @@
       <c r="C80" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="D80" s="34" t="s">
+      <c r="D80" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E80" s="34" t="s">
+      <c r="E80" s="35" t="s">
         <v>92</v>
       </c>
       <c r="F80" s="33"/>
@@ -3202,13 +3235,13 @@
       <c r="B88" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C88" s="34">
+      <c r="C88" s="35">
         <v>50</v>
       </c>
-      <c r="D88" s="34" t="s">
+      <c r="D88" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E88" s="34" t="s">
+      <c r="E88" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F88" s="33"/>
@@ -3222,13 +3255,13 @@
       <c r="B89" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C89" s="34">
+      <c r="C89" s="35">
         <v>240</v>
       </c>
-      <c r="D89" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E89" s="34" t="s">
+      <c r="D89" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" s="35" t="s">
         <v>5</v>
       </c>
       <c r="F89" s="33"/>
@@ -3242,13 +3275,13 @@
       <c r="B90" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C90" s="34">
+      <c r="C90" s="35">
         <v>8</v>
       </c>
-      <c r="D90" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E90" s="34" t="s">
+      <c r="D90" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="35" t="s">
         <v>5</v>
       </c>
       <c r="F90" s="33"/>
@@ -3262,13 +3295,13 @@
       <c r="B91" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C91" s="34" t="s">
+      <c r="C91" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="D91" s="34" t="s">
+      <c r="D91" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E91" s="34">
+      <c r="E91" s="35">
         <v>0</v>
       </c>
       <c r="F91" s="33"/>
@@ -3282,13 +3315,13 @@
       <c r="B92" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C92" s="34">
+      <c r="C92" s="35">
         <v>80</v>
       </c>
-      <c r="D92" s="34" t="s">
+      <c r="D92" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E92" s="34">
+      <c r="E92" s="35">
         <v>0</v>
       </c>
       <c r="F92" s="33"/>
@@ -3296,16 +3329,16 @@
       <c r="H92" s="33"/>
     </row>
     <row r="95" ht="48" customHeight="1" spans="1:8">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
     </row>
     <row r="96" s="2" customFormat="1" ht="33" customHeight="1" spans="1:8">
       <c r="A96" s="30" t="s">
@@ -3366,13 +3399,13 @@
       <c r="B98" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="C98" s="34">
+      <c r="C98" s="35">
         <v>240</v>
       </c>
-      <c r="D98" s="34" t="s">
+      <c r="D98" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="34" t="s">
+      <c r="E98" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F98" s="33"/>
@@ -3380,16 +3413,16 @@
       <c r="H98" s="33"/>
     </row>
     <row r="101" ht="60" customHeight="1" spans="1:8">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
     </row>
     <row r="102" s="2" customFormat="1" ht="32.4" customHeight="1" spans="1:8">
       <c r="A102" s="30" t="s">
@@ -3470,36 +3503,36 @@
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="35"/>
-      <c r="B105" s="35"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="36"/>
-      <c r="E105" s="36"/>
-      <c r="F105" s="36"/>
-      <c r="G105" s="36"/>
-      <c r="H105" s="36"/>
+      <c r="A105" s="36"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="37"/>
+      <c r="F105" s="37"/>
+      <c r="G105" s="37"/>
+      <c r="H105" s="37"/>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="35"/>
-      <c r="B106" s="35"/>
-      <c r="C106" s="36"/>
-      <c r="D106" s="36"/>
-      <c r="E106" s="36"/>
-      <c r="F106" s="36"/>
-      <c r="G106" s="36"/>
-      <c r="H106" s="36"/>
+      <c r="A106" s="36"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="37"/>
     </row>
     <row r="107" ht="46.8" customHeight="1" spans="1:8">
-      <c r="A107" s="37" t="s">
+      <c r="A107" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="B107" s="37"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="37"/>
-      <c r="F107" s="37"/>
-      <c r="G107" s="37"/>
-      <c r="H107" s="37"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="38"/>
+      <c r="E107" s="38"/>
+      <c r="F107" s="38"/>
+      <c r="G107" s="38"/>
+      <c r="H107" s="38"/>
     </row>
     <row r="108" s="2" customFormat="1" ht="31.8" customHeight="1" spans="1:8">
       <c r="A108" s="30" t="s">
@@ -3580,16 +3613,16 @@
       </c>
     </row>
     <row r="113" ht="48" customHeight="1" spans="1:8">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
     </row>
     <row r="114" s="2" customFormat="1" ht="31.8" customHeight="1" spans="1:8">
       <c r="A114" s="30" t="s">
@@ -3650,13 +3683,13 @@
       <c r="B116" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C116" s="34">
-        <v>20</v>
-      </c>
-      <c r="D116" s="34" t="s">
+      <c r="C116" s="35">
+        <v>20</v>
+      </c>
+      <c r="D116" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E116" s="34" t="s">
+      <c r="E116" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F116" s="33"/>
@@ -3670,13 +3703,13 @@
       <c r="B117" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C117" s="34">
+      <c r="C117" s="35">
         <v>240</v>
       </c>
-      <c r="D117" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E117" s="34" t="s">
+      <c r="D117" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117" s="35" t="s">
         <v>5</v>
       </c>
       <c r="F117" s="33"/>
@@ -3684,36 +3717,36 @@
       <c r="H117" s="33"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="38"/>
-      <c r="B118" s="38"/>
+      <c r="A118" s="39"/>
+      <c r="B118" s="39"/>
       <c r="C118" s="15"/>
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
-      <c r="F118" s="38"/>
-      <c r="G118" s="38"/>
-      <c r="H118" s="38"/>
+      <c r="F118" s="39"/>
+      <c r="G118" s="39"/>
+      <c r="H118" s="39"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="38"/>
-      <c r="B119" s="38"/>
+      <c r="A119" s="39"/>
+      <c r="B119" s="39"/>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15"/>
-      <c r="F119" s="38"/>
-      <c r="G119" s="38"/>
-      <c r="H119" s="38"/>
+      <c r="F119" s="39"/>
+      <c r="G119" s="39"/>
+      <c r="H119" s="39"/>
     </row>
     <row r="120" ht="46.2" customHeight="1" spans="1:8">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
     </row>
     <row r="121" s="2" customFormat="1" ht="33.6" customHeight="1" spans="1:8">
       <c r="A121" s="30" t="s">
@@ -3800,13 +3833,13 @@
       <c r="B124" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C124" s="34" t="s">
+      <c r="C124" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="D124" s="34" t="s">
+      <c r="D124" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E124" s="34" t="s">
+      <c r="E124" s="35" t="s">
         <v>87</v>
       </c>
       <c r="F124" s="33"/>
@@ -3884,13 +3917,13 @@
       <c r="B130" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="C130" s="34">
+      <c r="C130" s="35">
         <v>240</v>
       </c>
-      <c r="D130" s="34" t="s">
+      <c r="D130" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E130" s="34" t="s">
+      <c r="E130" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F130" s="33"/>
@@ -3898,16 +3931,16 @@
       <c r="H130" s="33"/>
     </row>
     <row r="133" s="3" customFormat="1" ht="40.8" customHeight="1" spans="1:8">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
-      <c r="H133" s="5"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
     </row>
     <row r="134" s="2" customFormat="1" ht="18" spans="1:8">
       <c r="A134" s="30" t="s">
@@ -3936,13 +3969,13 @@
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="39" t="s">
+      <c r="A135" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="B135" s="39" t="s">
+      <c r="B135" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C135" s="39">
+      <c r="C135" s="40">
         <v>20</v>
       </c>
       <c r="D135" s="33" t="s">
@@ -3952,21 +3985,21 @@
         <v>87</v>
       </c>
       <c r="F135" s="33"/>
-      <c r="G135" s="39" t="s">
+      <c r="G135" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="H135" s="39" t="s">
+      <c r="H135" s="40" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="39" t="s">
+      <c r="A136" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="B136" s="39" t="s">
+      <c r="B136" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C136" s="39">
+      <c r="C136" s="40">
         <v>20</v>
       </c>
       <c r="D136" s="33" t="s">
@@ -3979,31 +4012,31 @@
       <c r="G136" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H136" s="39" t="s">
+      <c r="H136" s="40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="39" t="s">
+      <c r="A137" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="B137" s="39" t="s">
+      <c r="B137" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C137" s="39">
+      <c r="C137" s="40">
         <v>20</v>
       </c>
       <c r="D137" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="E137" s="39" t="s">
+      <c r="E137" s="40" t="s">
         <v>87</v>
       </c>
       <c r="F137" s="33"/>
-      <c r="G137" s="39" t="s">
+      <c r="G137" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="H137" s="39" t="s">
+      <c r="H137" s="40" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4048,13 +4081,13 @@
       <c r="H139" s="33"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="40" t="s">
+      <c r="A140" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="B140" s="40" t="s">
+      <c r="B140" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="C140" s="40">
+      <c r="C140" s="42">
         <v>10</v>
       </c>
       <c r="D140" s="33" t="s">
@@ -4112,13 +4145,13 @@
       <c r="B143" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C143" s="41" t="s">
+      <c r="C143" s="43" t="s">
         <v>97</v>
       </c>
       <c r="D143" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E143" s="42">
+      <c r="E143" s="44">
         <v>0</v>
       </c>
       <c r="F143" s="33"/>
@@ -4164,13 +4197,13 @@
       </c>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="39" t="s">
+      <c r="A148" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="B148" s="39" t="s">
+      <c r="B148" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C148" s="39">
+      <c r="C148" s="40">
         <v>20</v>
       </c>
       <c r="D148" s="33" t="s">
@@ -4183,7 +4216,7 @@
       <c r="G148" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H148" s="39" t="s">
+      <c r="H148" s="40" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4228,16 +4261,16 @@
       <c r="H150" s="33"/>
     </row>
     <row r="153" ht="47.4" customHeight="1" spans="1:8">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
     </row>
     <row r="154" s="2" customFormat="1" ht="30.6" customHeight="1" spans="1:8">
       <c r="A154" s="30" t="s">
@@ -4266,13 +4299,13 @@
       </c>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="39" t="s">
+      <c r="A155" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="B155" s="39" t="s">
+      <c r="B155" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C155" s="39">
+      <c r="C155" s="40">
         <v>20</v>
       </c>
       <c r="D155" s="33" t="s">
@@ -4285,7 +4318,7 @@
       <c r="G155" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H155" s="39" t="s">
+      <c r="H155" s="40" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4328,6 +4361,396 @@
       <c r="F157" s="33"/>
       <c r="G157" s="33"/>
       <c r="H157" s="33"/>
+    </row>
+    <row r="160" s="4" customFormat="1" ht="52" customHeight="1" spans="1:8">
+      <c r="A160" s="45"/>
+      <c r="B160" s="45"/>
+      <c r="C160" s="45"/>
+      <c r="D160" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="E160" s="45"/>
+      <c r="F160" s="45"/>
+      <c r="G160" s="45"/>
+      <c r="H160" s="45"/>
+    </row>
+    <row r="161" ht="30" customHeight="1" spans="1:8">
+      <c r="A161" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B161" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E161" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F161" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G161" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H161" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" s="11">
+        <v>128</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" s="11">
+        <v>240</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" s="12"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="166" ht="45" customHeight="1" spans="1:8">
+      <c r="A166" s="45"/>
+      <c r="B166" s="45"/>
+      <c r="C166" s="45"/>
+      <c r="D166" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="E166" s="45"/>
+      <c r="F166" s="45"/>
+      <c r="G166" s="45"/>
+      <c r="H166" s="45"/>
+    </row>
+    <row r="167" ht="18" spans="1:8">
+      <c r="A167" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B167" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D167" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E167" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F167" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G167" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H167" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" s="11">
+        <v>128</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="10"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="12"/>
+    </row>
+    <row r="172" ht="45" customHeight="1" spans="1:8">
+      <c r="A172" s="45"/>
+      <c r="B172" s="45"/>
+      <c r="C172" s="45"/>
+      <c r="D172" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="E172" s="45"/>
+      <c r="F172" s="45"/>
+      <c r="G172" s="45"/>
+      <c r="H172" s="45"/>
+    </row>
+    <row r="173" ht="18" spans="1:8">
+      <c r="A173" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B173" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D173" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E173" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F173" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G173" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H173" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C174" s="11">
+        <v>128</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="12"/>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C175" s="11">
+        <v>128</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E175" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="12"/>
+    </row>
+    <row r="178" ht="46" customHeight="1" spans="1:8">
+      <c r="A178" s="45"/>
+      <c r="B178" s="45"/>
+      <c r="C178" s="45"/>
+      <c r="D178" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E178" s="45"/>
+      <c r="F178" s="45"/>
+      <c r="G178" s="45"/>
+      <c r="H178" s="45"/>
+    </row>
+    <row r="179" ht="18" spans="1:8">
+      <c r="A179" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B179" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D179" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F179" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G179" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H179" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C180" s="11">
+        <v>15</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E180" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C181" s="11">
+        <v>15</v>
+      </c>
+      <c r="D181" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E181" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C182" s="11">
+        <v>128</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E182" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="47" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" s="11">
+        <v>240</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E183" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F183" s="12"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="12"/>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C184" s="11">
+        <v>128</v>
+      </c>
+      <c r="D184" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E184" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="12"/>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C185" s="11">
+        <v>11</v>
+      </c>
+      <c r="D185" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E185" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F185" s="12"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="18">
